--- a/ParkerBensonMatrice.xlsx
+++ b/ParkerBensonMatrice.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Business domain</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>Kvalitets statistik</t>
-  </si>
-  <si>
-    <t>Samarbejde med Kopenhagen Fur</t>
   </si>
 </sst>
 </file>
@@ -288,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -317,9 +314,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M7"/>
+  <dimension ref="B1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +754,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="7">
-        <f t="shared" ref="M5:M7" si="0">SUM(C5:L5)</f>
+        <f t="shared" ref="M5:M6" si="0">SUM(C5:L5)</f>
         <v>0</v>
       </c>
     </row>
@@ -779,25 +773,6 @@
       <c r="K6" s="6"/>
       <c r="L6" s="8"/>
       <c r="M6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/ParkerBensonMatrice.xlsx
+++ b/ParkerBensonMatrice.xlsx
@@ -199,7 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,13 +236,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -285,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -303,12 +296,8 @@
       <alignment horizontal="right" vertical="center" wrapText="1" indent="4" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="4" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -616,175 +605,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1"/>
-      <c r="C1" s="9" t="s">
+    <row r="1" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="10" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
+    <row r="2" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <f>5*1</f>
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="C3" s="5">
+        <f>3*1</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
+        <f>4*1</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <f>4*1</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <f>1*1</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <f>-1*1</f>
+        <v>-1</v>
+      </c>
+      <c r="H3" s="5">
+        <f>2*1</f>
+        <v>2</v>
+      </c>
+      <c r="I3" s="5">
+        <f>-1*1</f>
+        <v>-1</v>
+      </c>
+      <c r="J3" s="5">
+        <f>-2*1</f>
+        <v>-2</v>
+      </c>
+      <c r="K3" s="5">
+        <f>-2*1</f>
+        <v>-2</v>
+      </c>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" ref="C4:C6" si="0">3*1</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
+        <f>4*3</f>
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <f>4*0</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <f>1*0</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <f>-1*5</f>
+        <v>-5</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H6" si="1">2*1</f>
+        <v>2</v>
+      </c>
+      <c r="I4" s="5">
+        <f>-1*2</f>
+        <v>-2</v>
+      </c>
+      <c r="J4" s="5">
+        <f>-2*3</f>
+        <v>-6</v>
+      </c>
+      <c r="K4" s="5">
+        <f>-2*5</f>
+        <v>-10</v>
+      </c>
+      <c r="L4" s="6">
+        <f>SUM(B4:K4)</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <f>3*4</f>
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <f>4*4</f>
+        <v>16</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" ref="D4:E6" si="2">4*1</f>
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <f>1*4</f>
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <f>-1*3</f>
+        <v>-3</v>
+      </c>
+      <c r="H5" s="5">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="I5" s="5">
+        <f>-1*2</f>
+        <v>-2</v>
+      </c>
+      <c r="J5" s="5">
+        <f>-2*2.75</f>
+        <v>-5.5</v>
+      </c>
+      <c r="K5" s="5">
+        <f>-2*3</f>
+        <v>-6</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" ref="L5:L6" si="3">SUM(B5:K5)</f>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <f>3*3</f>
+        <v>9</v>
+      </c>
+      <c r="D6" s="5">
+        <f>4*3</f>
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <f>4*1</f>
+        <v>4</v>
+      </c>
+      <c r="F6" s="5">
+        <f>1*3</f>
+        <v>3</v>
+      </c>
+      <c r="G6" s="5">
+        <f>-1*4</f>
+        <v>-4</v>
+      </c>
+      <c r="H6" s="5">
+        <f>2*4</f>
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5">
-        <v>4</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="5">
-        <v>2</v>
-      </c>
-      <c r="J3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="K3" s="5">
+      <c r="I6" s="5">
+        <f>-1*2</f>
         <v>-2</v>
       </c>
-      <c r="L3" s="5">
-        <v>-2</v>
-      </c>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="7">
-        <f>SUM(C4:L4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7">
-        <f t="shared" ref="M5:M6" si="0">SUM(C5:L5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="J6" s="5">
+        <f>-2*2.75</f>
+        <v>-5.5</v>
+      </c>
+      <c r="K6" s="5">
+        <f>-2*2</f>
+        <v>-4</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="3"/>
+        <v>20.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:L3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H3:H4 D4" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/ParkerBensonMatrice.xlsx
+++ b/ParkerBensonMatrice.xlsx
@@ -608,7 +608,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,10 +724,11 @@
         <v>14</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <f>5*4</f>
+        <v>20</v>
       </c>
       <c r="C4" s="5">
-        <f t="shared" ref="C4:C6" si="0">3*1</f>
+        <f t="shared" ref="C4" si="0">3*1</f>
         <v>3</v>
       </c>
       <c r="D4" s="5">
@@ -747,7 +748,7 @@
         <v>-5</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4:H6" si="1">2*1</f>
+        <f t="shared" ref="H4" si="1">2*1</f>
         <v>2</v>
       </c>
       <c r="I4" s="5">
@@ -764,7 +765,7 @@
       </c>
       <c r="L4" s="6">
         <f>SUM(B4:K4)</f>
-        <v>-6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -772,7 +773,8 @@
         <v>16</v>
       </c>
       <c r="B5" s="5">
-        <v>0</v>
+        <f>5*2</f>
+        <v>10</v>
       </c>
       <c r="C5" s="5">
         <f>3*4</f>
@@ -783,7 +785,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="D4:E6" si="2">4*1</f>
+        <f t="shared" ref="E5" si="2">4*1</f>
         <v>4</v>
       </c>
       <c r="F5" s="5">
@@ -812,7 +814,7 @@
       </c>
       <c r="L5" s="6">
         <f t="shared" ref="L5:L6" si="3">SUM(B5:K5)</f>
-        <v>29.5</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -820,7 +822,8 @@
         <v>15</v>
       </c>
       <c r="B6" s="5">
-        <v>0</v>
+        <f>5*3</f>
+        <v>15</v>
       </c>
       <c r="C6" s="5">
         <f>3*3</f>
@@ -860,7 +863,7 @@
       </c>
       <c r="L6" s="6">
         <f t="shared" si="3"/>
-        <v>20.5</v>
+        <v>35.5</v>
       </c>
     </row>
   </sheetData>

--- a/ParkerBensonMatrice.xlsx
+++ b/ParkerBensonMatrice.xlsx
@@ -189,10 +189,10 @@
     <t>Fodring</t>
   </si>
   <si>
-    <t>Sygdoms kontrol</t>
-  </si>
-  <si>
-    <t>Kvalitets statistik</t>
+    <t>Kvalitets registrering</t>
+  </si>
+  <si>
+    <t>Flytning af mink grundet sygdom</t>
   </si>
 </sst>
 </file>
@@ -608,12 +608,12 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" customWidth="1"/>
@@ -770,19 +770,19 @@
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5">
         <f>5*2</f>
         <v>10</v>
       </c>
       <c r="C5" s="5">
-        <f>3*4</f>
-        <v>12</v>
+        <f>3*3</f>
+        <v>9</v>
       </c>
       <c r="D5" s="5">
-        <f>4*4</f>
-        <v>16</v>
+        <f>4*2</f>
+        <v>8</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5" si="2">4*1</f>
@@ -797,8 +797,8 @@
         <v>-3</v>
       </c>
       <c r="H5" s="5">
-        <f>2*5</f>
-        <v>10</v>
+        <f>2*3</f>
+        <v>6</v>
       </c>
       <c r="I5" s="5">
         <f>-1*2</f>
@@ -814,24 +814,24 @@
       </c>
       <c r="L5" s="6">
         <f t="shared" ref="L5:L6" si="3">SUM(B5:K5)</f>
-        <v>39.5</v>
+        <v>24.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5">
         <f>5*3</f>
         <v>15</v>
       </c>
       <c r="C6" s="5">
-        <f>3*3</f>
-        <v>9</v>
+        <f>3*4</f>
+        <v>12</v>
       </c>
       <c r="D6" s="5">
-        <f>4*3</f>
-        <v>12</v>
+        <f>4*4</f>
+        <v>16</v>
       </c>
       <c r="E6" s="5">
         <f>4*1</f>
@@ -846,8 +846,8 @@
         <v>-4</v>
       </c>
       <c r="H6" s="5">
-        <f>2*4</f>
-        <v>8</v>
+        <f>2*5</f>
+        <v>10</v>
       </c>
       <c r="I6" s="5">
         <f>-1*2</f>
@@ -863,7 +863,7 @@
       </c>
       <c r="L6" s="6">
         <f t="shared" si="3"/>
-        <v>35.5</v>
+        <v>44.5</v>
       </c>
     </row>
   </sheetData>

--- a/ParkerBensonMatrice.xlsx
+++ b/ParkerBensonMatrice.xlsx
@@ -613,7 +613,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" customWidth="1"/>

--- a/ParkerBensonMatrice.xlsx
+++ b/ParkerBensonMatrice.xlsx
@@ -608,18 +608,20 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -639,7 +641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -673,7 +675,7 @@
       </c>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -719,7 +721,7 @@
       </c>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -768,7 +770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -817,7 +819,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
